--- a/Saved_file/EM001/2026_05/sap_data.xlsx
+++ b/Saved_file/EM001/2026_05/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST2328</t>
+          <t>CUST2450</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39965714</v>
+        <v>44415986</v>
       </c>
       <c r="E2" t="n">
-        <v>12137390</v>
+        <v>12636860</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST8219</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44134320</v>
+        <v>34778411</v>
       </c>
       <c r="E3" t="n">
-        <v>13070555</v>
+        <v>10315726</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST2818</t>
+          <t>CUST3414</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>59292519</v>
+        <v>55650716</v>
       </c>
       <c r="E4" t="n">
-        <v>18082924</v>
+        <v>14243507</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-05-11</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST8913</t>
+          <t>CUST7720</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38389637</v>
+        <v>50261119</v>
       </c>
       <c r="E5" t="n">
-        <v>12142756</v>
+        <v>13464271</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7786</t>
+          <t>CUST1889</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51353014</v>
+        <v>53723124</v>
       </c>
       <c r="E6" t="n">
-        <v>15547664</v>
+        <v>17202825</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST8291</t>
+          <t>CUST5973</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43229677</v>
+        <v>47923558</v>
       </c>
       <c r="E7" t="n">
-        <v>14930447</v>
+        <v>13259967</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST9188</t>
+          <t>CUST4199</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32216304</v>
+        <v>30883566</v>
       </c>
       <c r="E8" t="n">
-        <v>10815118</v>
+        <v>9672481</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST8291</t>
+          <t>CUST6098</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49567711</v>
+        <v>45045314</v>
       </c>
       <c r="E9" t="n">
-        <v>14070525</v>
+        <v>15077780</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST9188</t>
+          <t>CUST8305</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35275792</v>
+        <v>33905711</v>
       </c>
       <c r="E10" t="n">
-        <v>10575959</v>
+        <v>11145502</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,25 +978,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST2393</t>
+          <t>CUST1889</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41779943</v>
+        <v>47303011</v>
       </c>
       <c r="E11" t="n">
-        <v>13175580</v>
+        <v>12936973</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1010,12 +1010,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST1889</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59701860</v>
+        <v>30201602</v>
       </c>
       <c r="E12" t="n">
-        <v>16396970</v>
+        <v>8021940</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST5492</t>
+          <t>CUST2956</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42323706</v>
+        <v>52582485</v>
       </c>
       <c r="E13" t="n">
-        <v>12446318</v>
+        <v>14152428</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,12 +1118,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST9369</t>
+          <t>CUST4030</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39860834</v>
+        <v>30339702</v>
       </c>
       <c r="E14" t="n">
-        <v>11029280</v>
+        <v>7677796</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,12 +1172,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST8907</t>
+          <t>CUST3861</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32442822</v>
+        <v>59127654</v>
       </c>
       <c r="E15" t="n">
-        <v>8147741</v>
+        <v>16126363</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST8245</t>
+          <t>CUST6738</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57703446</v>
+        <v>59744823</v>
       </c>
       <c r="E16" t="n">
-        <v>19053722</v>
+        <v>15892943</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST6642</t>
+          <t>CUST9391</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>40622388</v>
+        <v>53172459</v>
       </c>
       <c r="E17" t="n">
-        <v>11273235</v>
+        <v>17299096</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST4262</t>
+          <t>CUST8617</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>40925756</v>
+        <v>30532607</v>
       </c>
       <c r="E18" t="n">
-        <v>11242894</v>
+        <v>10560262</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-05-29</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5053</t>
+          <t>CUST2280</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45587674</v>
+        <v>53739826</v>
       </c>
       <c r="E19" t="n">
-        <v>15836064</v>
+        <v>15902207</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,25 +1464,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST6642</t>
+          <t>CUST7884</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40554874</v>
+        <v>31094278</v>
       </c>
       <c r="E20" t="n">
-        <v>12548492</v>
+        <v>8919265</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-05-11</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST2328</t>
+          <t>CUST8494</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>42653886</v>
+        <v>55296807</v>
       </c>
       <c r="E21" t="n">
-        <v>11961989</v>
+        <v>18439728</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST8816</t>
+          <t>CUST6738</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53472597</v>
+        <v>45867773</v>
       </c>
       <c r="E22" t="n">
-        <v>15227088</v>
+        <v>14122451</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST4886</t>
+          <t>CUST8267</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44755808</v>
+        <v>43761980</v>
       </c>
       <c r="E23" t="n">
-        <v>11750197</v>
+        <v>11943266</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST9369</t>
+          <t>CUST4030</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36433727</v>
+        <v>41140615</v>
       </c>
       <c r="E24" t="n">
-        <v>9322919</v>
+        <v>13941917</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,12 +1712,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-05-07</t>
+          <t>2026-05-21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST9292</t>
+          <t>CUST1536</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41263690</v>
+        <v>56119831</v>
       </c>
       <c r="E25" t="n">
-        <v>10694185</v>
+        <v>14498253</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST5862</t>
+          <t>CUST5776</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46458081</v>
+        <v>59134479</v>
       </c>
       <c r="E26" t="n">
-        <v>15067605</v>
+        <v>17505409</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST9643</t>
+          <t>CUST8219</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46259403</v>
+        <v>43246423</v>
       </c>
       <c r="E27" t="n">
-        <v>14622191</v>
+        <v>15086834</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST7701</t>
+          <t>CUST8219</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59673407</v>
+        <v>46069879</v>
       </c>
       <c r="E28" t="n">
-        <v>17853868</v>
+        <v>16091047</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-05-26</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST5053</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31023260</v>
+        <v>59284791</v>
       </c>
       <c r="E29" t="n">
-        <v>10217008</v>
+        <v>16573053</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,12 +1982,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7158</t>
+          <t>CUST8494</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>42785676</v>
+        <v>47738878</v>
       </c>
       <c r="E30" t="n">
-        <v>14884336</v>
+        <v>13977404</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST3982</t>
+          <t>CUST8494</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45583872</v>
+        <v>46606015</v>
       </c>
       <c r="E31" t="n">
-        <v>15282658</v>
+        <v>15859833</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST7786</t>
+          <t>CUST8279</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>43432151</v>
+        <v>38155378</v>
       </c>
       <c r="E32" t="n">
-        <v>11214491</v>
+        <v>10223812</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST7158</t>
+          <t>CUST4030</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>54059615</v>
+        <v>45200143</v>
       </c>
       <c r="E33" t="n">
-        <v>14126549</v>
+        <v>15740588</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST2818</t>
+          <t>CUST8267</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>37252438</v>
+        <v>35980382</v>
       </c>
       <c r="E34" t="n">
-        <v>11787320</v>
+        <v>10058998</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST5862</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>43448750</v>
+        <v>48116843</v>
       </c>
       <c r="E35" t="n">
-        <v>14335919</v>
+        <v>13100674</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8907</t>
+          <t>CUST8114</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>39991259</v>
+        <v>40052842</v>
       </c>
       <c r="E36" t="n">
-        <v>13833948</v>
+        <v>10747753</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2365,12 +2365,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST9206</t>
+          <t>CUST4199</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>46125429</v>
+        <v>56247301</v>
       </c>
       <c r="E37" t="n">
-        <v>15334304</v>
+        <v>19418218</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST8913</t>
+          <t>CUST9391</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>54011293</v>
+        <v>53213970</v>
       </c>
       <c r="E38" t="n">
-        <v>14092379</v>
+        <v>15496767</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST6443</t>
+          <t>CUST2450</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>36216067</v>
+        <v>52912963</v>
       </c>
       <c r="E39" t="n">
-        <v>10896417</v>
+        <v>14834049</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2544,25 +2544,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST1627</t>
+          <t>CUST7690</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>48834531</v>
+        <v>45766740</v>
       </c>
       <c r="E40" t="n">
-        <v>16321193</v>
+        <v>14711080</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST6443</t>
+          <t>CUST2280</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>46006514</v>
+        <v>56288514</v>
       </c>
       <c r="E41" t="n">
-        <v>13018157</v>
+        <v>17247246</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST5053</t>
+          <t>CUST9391</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>41397168</v>
+        <v>48600866</v>
       </c>
       <c r="E42" t="n">
-        <v>14289266</v>
+        <v>14076089</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST3994</t>
+          <t>CUST1573</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>56817202</v>
+        <v>37948343</v>
       </c>
       <c r="E43" t="n">
-        <v>14361963</v>
+        <v>13029902</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2743,12 +2743,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST9292</t>
+          <t>CUST4199</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>42232528</v>
+        <v>53230714</v>
       </c>
       <c r="E44" t="n">
-        <v>11880532</v>
+        <v>16835096</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST5839</t>
+          <t>CUST3770</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>44409461</v>
+        <v>59970535</v>
       </c>
       <c r="E45" t="n">
-        <v>13441945</v>
+        <v>18985887</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9292</t>
+          <t>CUST8617</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>53962177</v>
+        <v>52888036</v>
       </c>
       <c r="E46" t="n">
-        <v>16429421</v>
+        <v>14184257</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST9643</t>
+          <t>CUST2491</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>31091286</v>
+        <v>42108077</v>
       </c>
       <c r="E47" t="n">
-        <v>8495395</v>
+        <v>14011148</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6947</t>
+          <t>CUST3091</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38935744</v>
+        <v>37861989</v>
       </c>
       <c r="E48" t="n">
-        <v>12145944</v>
+        <v>11455080</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-05-08</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST6947</t>
+          <t>CUST6098</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>54729060</v>
+        <v>53293006</v>
       </c>
       <c r="E49" t="n">
-        <v>15958120</v>
+        <v>17960601</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST5809</t>
+          <t>CUST3091</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>42289815</v>
+        <v>36897349</v>
       </c>
       <c r="E50" t="n">
-        <v>13149361</v>
+        <v>12351888</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST2393</t>
+          <t>CUST8114</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>36951903</v>
+        <v>39597889</v>
       </c>
       <c r="E51" t="n">
-        <v>11494387</v>
+        <v>13029305</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST2393</t>
+          <t>CUST6104</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>50697508</v>
+        <v>31754071</v>
       </c>
       <c r="E52" t="n">
-        <v>16195343</v>
+        <v>8495566</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST9814</t>
+          <t>CUST9391</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31030635</v>
+        <v>43744763</v>
       </c>
       <c r="E53" t="n">
-        <v>8164220</v>
+        <v>11950686</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1627</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>53762774</v>
+        <v>36188231</v>
       </c>
       <c r="E54" t="n">
-        <v>16005378</v>
+        <v>11463144</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST2328</t>
+          <t>CUST8279</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>50191594</v>
+        <v>34695338</v>
       </c>
       <c r="E55" t="n">
-        <v>14316188</v>
+        <v>11638796</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST7351</t>
+          <t>CUST8267</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>46791851</v>
+        <v>43723029</v>
       </c>
       <c r="E56" t="n">
-        <v>16003410</v>
+        <v>12760133</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST7158</t>
+          <t>CUST1573</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>33312794</v>
+        <v>50366688</v>
       </c>
       <c r="E57" t="n">
-        <v>9112416</v>
+        <v>17555972</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3499,12 +3499,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST6975</t>
+          <t>CUST9777</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>42925617</v>
+        <v>44295442</v>
       </c>
       <c r="E58" t="n">
-        <v>14084398</v>
+        <v>12131795</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST6443</t>
+          <t>CUST8909</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>51583251</v>
+        <v>54728181</v>
       </c>
       <c r="E59" t="n">
-        <v>14099489</v>
+        <v>17180523</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3607,12 +3607,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-05</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST9888</t>
+          <t>CUST3861</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>56922472</v>
+        <v>40820575</v>
       </c>
       <c r="E60" t="n">
-        <v>14358049</v>
+        <v>13275706</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST7158</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>39313031</v>
+        <v>41530662</v>
       </c>
       <c r="E61" t="n">
-        <v>11662164</v>
+        <v>13768594</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-05-19</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST2393</t>
+          <t>CUST6047</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>36553549</v>
+        <v>36384576</v>
       </c>
       <c r="E62" t="n">
-        <v>10234360</v>
+        <v>10372226</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST7351</t>
+          <t>CUST1573</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40188036</v>
+        <v>39339555</v>
       </c>
       <c r="E63" t="n">
-        <v>12561305</v>
+        <v>10696254</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,12 +3818,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-22</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST9474</t>
+          <t>CUST8267</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35692097</v>
+        <v>54137767</v>
       </c>
       <c r="E64" t="n">
-        <v>11379234</v>
+        <v>17148663</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST9474</t>
+          <t>CUST7549</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>57764296</v>
+        <v>54155494</v>
       </c>
       <c r="E65" t="n">
-        <v>20149475</v>
+        <v>16165706</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST3994</t>
+          <t>CUST3751</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>31373516</v>
+        <v>45488158</v>
       </c>
       <c r="E66" t="n">
-        <v>9848607</v>
+        <v>12842178</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-05-11</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST4650</t>
+          <t>CUST4605</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>59428711</v>
+        <v>41727771</v>
       </c>
       <c r="E67" t="n">
-        <v>18924237</v>
+        <v>10631885</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4039,12 +4039,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST7547</t>
+          <t>CUST6047</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>54315036</v>
+        <v>32290820</v>
       </c>
       <c r="E68" t="n">
-        <v>17511843</v>
+        <v>9826552</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,12 +4088,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-05-04</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST8245</t>
+          <t>CUST7884</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>57172830</v>
+        <v>55382811</v>
       </c>
       <c r="E69" t="n">
-        <v>15637399</v>
+        <v>17931611</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST2594</t>
+          <t>CUST8219</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>49722620</v>
+        <v>35670915</v>
       </c>
       <c r="E70" t="n">
-        <v>17090044</v>
+        <v>9952720</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4218,25 +4218,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST9369</t>
+          <t>CUST8305</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32877900</v>
+        <v>53159520</v>
       </c>
       <c r="E71" t="n">
-        <v>10128556</v>
+        <v>15842477</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-05-15</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST7701</t>
+          <t>CUST1653</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>48630705</v>
+        <v>43232364</v>
       </c>
       <c r="E72" t="n">
-        <v>12741596</v>
+        <v>14584816</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST5053</t>
+          <t>CUST5973</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46668567</v>
+        <v>44973955</v>
       </c>
       <c r="E73" t="n">
-        <v>13043141</v>
+        <v>12628515</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST5898</t>
+          <t>CUST4199</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>58664833</v>
+        <v>38948001</v>
       </c>
       <c r="E74" t="n">
-        <v>15747469</v>
+        <v>12723405</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST5960</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>58429576</v>
+        <v>48848251</v>
       </c>
       <c r="E75" t="n">
-        <v>18040775</v>
+        <v>15129233</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST6975</t>
+          <t>CUST6047</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>48163487</v>
+        <v>51224623</v>
       </c>
       <c r="E76" t="n">
-        <v>13362409</v>
+        <v>16176222</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST7549</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>32881806</v>
+        <v>46136120</v>
       </c>
       <c r="E77" t="n">
-        <v>10724925</v>
+        <v>14755235</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-05-18</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST9814</t>
+          <t>CUST5776</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>37307356</v>
+        <v>36123187</v>
       </c>
       <c r="E78" t="n">
-        <v>11921789</v>
+        <v>11100888</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST9643</t>
+          <t>CUST6793</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>52981294</v>
+        <v>37821718</v>
       </c>
       <c r="E79" t="n">
-        <v>18137888</v>
+        <v>12221954</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST9888</t>
+          <t>CUST8219</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>41733208</v>
+        <v>44852851</v>
       </c>
       <c r="E80" t="n">
-        <v>11123322</v>
+        <v>15224905</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-05-05</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST1981</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>50916087</v>
+        <v>58716533</v>
       </c>
       <c r="E81" t="n">
-        <v>15970608</v>
+        <v>18389845</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-05-22</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST6975</t>
+          <t>CUST3861</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>57620822</v>
+        <v>52574159</v>
       </c>
       <c r="E82" t="n">
-        <v>16765266</v>
+        <v>15840205</v>
       </c>
       <c r="F82" t="n">
         <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-05-08</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST9369</t>
+          <t>CUST1653</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>36678098</v>
+        <v>34993556</v>
       </c>
       <c r="E83" t="n">
-        <v>12510481</v>
+        <v>8980129</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4903,12 +4903,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST7547</t>
+          <t>CUST8114</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>53946393</v>
+        <v>42634205</v>
       </c>
       <c r="E84" t="n">
-        <v>13844646</v>
+        <v>12842885</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-05-29</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST8907</t>
+          <t>CUST7690</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>45836581</v>
+        <v>40626954</v>
       </c>
       <c r="E85" t="n">
-        <v>14095599</v>
+        <v>13568052</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST4650</t>
+          <t>CUST4605</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>47351385</v>
+        <v>50510290</v>
       </c>
       <c r="E86" t="n">
-        <v>13250061</v>
+        <v>13267004</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST4703</t>
+          <t>CUST3091</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>44850616</v>
+        <v>49609630</v>
       </c>
       <c r="E87" t="n">
-        <v>13084649</v>
+        <v>15858928</v>
       </c>
       <c r="F87" t="n">
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST5076</t>
+          <t>CUST3091</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>47339772</v>
+        <v>46148653</v>
       </c>
       <c r="E88" t="n">
-        <v>14921509</v>
+        <v>13642315</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST7351</t>
+          <t>CUST6098</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>32474109</v>
+        <v>44778259</v>
       </c>
       <c r="E89" t="n">
-        <v>8638553</v>
+        <v>14506222</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST9838</t>
+          <t>CUST7032</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>57398714</v>
+        <v>43229927</v>
       </c>
       <c r="E90" t="n">
-        <v>19504899</v>
+        <v>11148587</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-12</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST8617</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>43328952</v>
+        <v>49469379</v>
       </c>
       <c r="E91" t="n">
-        <v>11788712</v>
+        <v>12574733</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,17 +5330,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5357,20 +5357,20 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST2393</t>
+          <t>CUST1653</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>46536242</v>
+        <v>31800398</v>
       </c>
       <c r="E92" t="n">
-        <v>12703990</v>
+        <v>8822188</v>
       </c>
       <c r="F92" t="n">
         <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5389,12 +5389,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5406,29 +5406,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-31</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST8245</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31165138</v>
+        <v>37038393</v>
       </c>
       <c r="E93" t="n">
-        <v>10333599</v>
+        <v>9542712</v>
       </c>
       <c r="F93" t="n">
         <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST5862</t>
+          <t>CUST1981</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>51489805</v>
+        <v>43828442</v>
       </c>
       <c r="E94" t="n">
-        <v>14802340</v>
+        <v>12973140</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5492,17 +5492,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST3414</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>30903062</v>
+        <v>41018315</v>
       </c>
       <c r="E95" t="n">
-        <v>8698493</v>
+        <v>14098235</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5568,29 +5568,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST5053</t>
+          <t>CUST9589</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>30126472</v>
+        <v>55784585</v>
       </c>
       <c r="E96" t="n">
-        <v>8480514</v>
+        <v>19143916</v>
       </c>
       <c r="F96" t="n">
         <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5600,17 +5600,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5622,25 +5622,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST3982</t>
+          <t>CUST1981</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>44440525</v>
+        <v>33202953</v>
       </c>
       <c r="E97" t="n">
-        <v>13368657</v>
+        <v>9918230</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST9206</t>
+          <t>CUST6098</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>59044484</v>
+        <v>41696449</v>
       </c>
       <c r="E98" t="n">
-        <v>17347431</v>
+        <v>12217132</v>
       </c>
       <c r="F98" t="n">
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5708,17 +5708,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5730,25 +5730,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-05-13</t>
+          <t>2026-05-29</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST3994</t>
+          <t>CUST6557</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>44586950</v>
+        <v>56877247</v>
       </c>
       <c r="E99" t="n">
-        <v>12140151</v>
+        <v>15368708</v>
       </c>
       <c r="F99" t="n">
         <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -5784,25 +5784,25 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-05-31</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST8913</t>
+          <t>CUST9589</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>55697996</v>
+        <v>33467610</v>
       </c>
       <c r="E100" t="n">
-        <v>18959040</v>
+        <v>9581515</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5838,25 +5838,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST8245</t>
+          <t>CUST6098</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>51916916</v>
+        <v>37051199</v>
       </c>
       <c r="E101" t="n">
-        <v>17660132</v>
+        <v>12067909</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5892,25 +5892,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-05-08</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST8245</t>
+          <t>CUST6098</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>36369202</v>
+        <v>49111284</v>
       </c>
       <c r="E102" t="n">
-        <v>11789851</v>
+        <v>12925935</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -5929,12 +5929,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5946,25 +5946,25 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-05-07</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST9838</t>
+          <t>CUST1536</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>39877749</v>
+        <v>32726934</v>
       </c>
       <c r="E103" t="n">
-        <v>11167788</v>
+        <v>10743993</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -5983,12 +5983,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6000,25 +6000,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST7786</t>
+          <t>CUST5973</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>38775927</v>
+        <v>49605082</v>
       </c>
       <c r="E104" t="n">
-        <v>10049293</v>
+        <v>16087555</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6032,17 +6032,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST5898</t>
+          <t>CUST6793</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>57095002</v>
+        <v>54625444</v>
       </c>
       <c r="E105" t="n">
-        <v>18792873</v>
+        <v>16068365</v>
       </c>
       <c r="F105" t="n">
         <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-05-21</t>
+          <t>2026-05-14</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST1627</t>
+          <t>CUST6738</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>42807342</v>
+        <v>54640203</v>
       </c>
       <c r="E106" t="n">
-        <v>14902446</v>
+        <v>15868713</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6140,17 +6140,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-15</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST5960</t>
+          <t>CUST7690</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>53303666</v>
+        <v>52009755</v>
       </c>
       <c r="E107" t="n">
-        <v>16912613</v>
+        <v>15931610</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6216,29 +6216,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST5076</t>
+          <t>CUST9334</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>39112573</v>
+        <v>33074692</v>
       </c>
       <c r="E108" t="n">
-        <v>9933523</v>
+        <v>8524322</v>
       </c>
       <c r="F108" t="n">
         <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -6270,29 +6270,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-05-07</t>
+          <t>2026-05-26</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST7547</t>
+          <t>CUST8305</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>49493119</v>
+        <v>35411216</v>
       </c>
       <c r="E109" t="n">
-        <v>14234686</v>
+        <v>10203024</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6307,12 +6307,12 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-05-06</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST1627</t>
+          <t>CUST9589</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>47387063</v>
+        <v>48812871</v>
       </c>
       <c r="E110" t="n">
-        <v>12702573</v>
+        <v>15159750</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -6356,17 +6356,17 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6378,25 +6378,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST2393</t>
+          <t>CUST1981</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>43674516</v>
+        <v>40082416</v>
       </c>
       <c r="E111" t="n">
-        <v>13701270</v>
+        <v>12607959</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -6410,17 +6410,17 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6432,29 +6432,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-25</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST9206</t>
+          <t>CUST6557</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>49898422</v>
+        <v>45643672</v>
       </c>
       <c r="E112" t="n">
-        <v>14990587</v>
+        <v>13752876</v>
       </c>
       <c r="F112" t="n">
         <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6464,17 +6464,17 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-05-27</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST9814</t>
+          <t>CUST8305</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>57673637</v>
+        <v>50160151</v>
       </c>
       <c r="E113" t="n">
-        <v>16067456</v>
+        <v>12775623</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6523,12 +6523,12 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6540,25 +6540,25 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-07</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST9757</t>
+          <t>CUST9589</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>59335635</v>
+        <v>34159001</v>
       </c>
       <c r="E114" t="n">
-        <v>19383426</v>
+        <v>11185761</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -6572,12 +6572,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-05-14</t>
+          <t>2026-05-08</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST5960</t>
+          <t>CUST8494</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>51944148</v>
+        <v>46930482</v>
       </c>
       <c r="E115" t="n">
-        <v>14589390</v>
+        <v>13652612</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6648,29 +6648,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-05-29</t>
+          <t>2026-05-22</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST4742</t>
+          <t>CUST4030</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>40223531</v>
+        <v>38000340</v>
       </c>
       <c r="E116" t="n">
-        <v>12453385</v>
+        <v>10102479</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6680,17 +6680,17 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6702,25 +6702,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-05-12</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST1522</t>
+          <t>CUST6557</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>52847566</v>
+        <v>49561017</v>
       </c>
       <c r="E117" t="n">
-        <v>15570802</v>
+        <v>13384436</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -6734,17 +6734,17 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-05-25</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST5839</t>
+          <t>CUST4242</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>55680339</v>
+        <v>35776357</v>
       </c>
       <c r="E118" t="n">
-        <v>19306367</v>
+        <v>9240444</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-05-20</t>
+          <t>2026-05-19</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST5076</t>
+          <t>CUST3751</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>46190903</v>
+        <v>30109482</v>
       </c>
       <c r="E119" t="n">
-        <v>11712977</v>
+        <v>7778892</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6842,17 +6842,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST7158</t>
+          <t>CUST4199</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>45027844</v>
+        <v>59673145</v>
       </c>
       <c r="E120" t="n">
-        <v>13367255</v>
+        <v>18287950</v>
       </c>
       <c r="F120" t="n">
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -6918,29 +6918,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-05-28</t>
+          <t>2026-05-13</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST9838</t>
+          <t>CUST7690</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>47562200</v>
+        <v>46385302</v>
       </c>
       <c r="E121" t="n">
-        <v>16619863</v>
+        <v>14144416</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6950,17 +6950,17 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.8</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>11313272</v>
+        <v>5174386</v>
       </c>
       <c r="E2" t="n">
-        <v>3215526</v>
+        <v>1189586</v>
       </c>
     </row>
     <row r="3">
@@ -7074,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>17810151</v>
+        <v>4708609</v>
       </c>
       <c r="E5" t="n">
-        <v>4792805</v>
+        <v>558645</v>
       </c>
     </row>
     <row r="6">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6259278</v>
+        <v>5795031</v>
       </c>
       <c r="E6" t="n">
-        <v>1144541</v>
+        <v>767320</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.09999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>19108636</v>
+        <v>4586049</v>
       </c>
       <c r="E7" t="n">
-        <v>4579938</v>
+        <v>1307241</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>4772974</v>
+        <v>9309980</v>
       </c>
       <c r="E8" t="n">
-        <v>1013520</v>
+        <v>2141686</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>23331009</v>
+        <v>12457791</v>
       </c>
       <c r="E9" t="n">
-        <v>5368165</v>
+        <v>2102502</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>7803855</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2296264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>2248366</v>
+        <v>15334086</v>
       </c>
       <c r="E12" t="n">
-        <v>654446</v>
+        <v>1966257</v>
       </c>
     </row>
     <row r="13">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>2187128</v>
+        <v>5699859</v>
       </c>
       <c r="E13" t="n">
-        <v>228405</v>
+        <v>1106890</v>
       </c>
     </row>
     <row r="14">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2352279</v>
+        <v>10532132</v>
       </c>
       <c r="E14" t="n">
-        <v>673527</v>
+        <v>2819527</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>11266473</v>
+        <v>4162515</v>
       </c>
       <c r="E15" t="n">
-        <v>2636596</v>
+        <v>802357</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>20952512</v>
+        <v>7848458</v>
       </c>
       <c r="E16" t="n">
-        <v>3506067</v>
+        <v>1629799</v>
       </c>
     </row>
     <row r="17">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2535254</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>441495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.5</v>
+        <v>91.8</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>7773750</v>
+        <v>16483591</v>
       </c>
       <c r="E19" t="n">
-        <v>1792697</v>
+        <v>3625158</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98</v>
+        <v>93.7</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>12486891</v>
+        <v>10308793</v>
       </c>
       <c r="E20" t="n">
-        <v>2868423</v>
+        <v>2537091</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>6730846</v>
+        <v>13588456</v>
       </c>
       <c r="E21" t="n">
-        <v>963845</v>
+        <v>2891592</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>3191295</v>
+        <v>23338837</v>
       </c>
       <c r="E22" t="n">
-        <v>836115</v>
+        <v>5034906</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>13289535</v>
+        <v>9630007</v>
       </c>
       <c r="E23" t="n">
-        <v>3157268</v>
+        <v>1507901</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>84.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5342863</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1043285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7473,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>2124576</v>
+        <v>5597914</v>
       </c>
       <c r="E26" t="n">
-        <v>463863</v>
+        <v>1550268</v>
       </c>
     </row>
     <row r="27">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>9011017</v>
+        <v>3079131</v>
       </c>
       <c r="E27" t="n">
-        <v>1935705</v>
+        <v>349539</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>12351725</v>
+        <v>6615130</v>
       </c>
       <c r="E28" t="n">
-        <v>2964577</v>
+        <v>717812</v>
       </c>
     </row>
     <row r="29">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>9194950</v>
+        <v>5539770</v>
       </c>
       <c r="E29" t="n">
-        <v>2285131</v>
+        <v>833577</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.5</v>
+        <v>91.5</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>16184043</v>
+        <v>12101799</v>
       </c>
       <c r="E30" t="n">
-        <v>1853069</v>
+        <v>2730051</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.5</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1915480</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>420441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7587,16 +7587,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>12725500</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3594620</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
